--- a/FEM/Nodes_and_sensors.xlsx
+++ b/FEM/Nodes_and_sensors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/oyvinpet_ntnu_no/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilneby/PyCharmProjects/AOMA_Halogaland/FEM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{320E6D2C-10C0-4A99-8DA0-E05E54903363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4C79D43-8D4E-40B7-8185-CE4025C463FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242A34AA-62A1-0B49-ACEC-C7574AC817F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34290" yWindow="4240" windowWidth="19420" windowHeight="11020" xr2:uid="{5115A346-31B7-4C96-AFB2-BFD323AD82DE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17560" xr2:uid="{5115A346-31B7-4C96-AFB2-BFD323AD82DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,7 +216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,20 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0660CAF-DF01-47D9-AD28-70CE69E13AE0}">
-  <dimension ref="E1:I24"/>
+  <dimension ref="E1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J4" sqref="J4:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:9">
+    <row r="1" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="5:9">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
@@ -553,7 +553,7 @@
         <v>25020</v>
       </c>
     </row>
-    <row r="4" spans="5:9">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
@@ -566,8 +566,11 @@
       <c r="I4">
         <v>3080</v>
       </c>
-    </row>
-    <row r="5" spans="5:9">
+      <c r="J4">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
@@ -580,8 +583,11 @@
       <c r="I5">
         <v>2080</v>
       </c>
-    </row>
-    <row r="6" spans="5:9">
+      <c r="J5">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
@@ -594,8 +600,11 @@
       <c r="I6">
         <v>3140</v>
       </c>
-    </row>
-    <row r="7" spans="5:9">
+      <c r="J6">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
@@ -608,8 +617,11 @@
       <c r="I7">
         <v>2140</v>
       </c>
-    </row>
-    <row r="8" spans="5:9">
+      <c r="J7">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
@@ -622,8 +634,11 @@
       <c r="I8">
         <v>3200</v>
       </c>
-    </row>
-    <row r="9" spans="5:9">
+      <c r="J8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
@@ -636,8 +651,11 @@
       <c r="I9">
         <v>2200</v>
       </c>
-    </row>
-    <row r="10" spans="5:9">
+      <c r="J9">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
@@ -650,8 +668,11 @@
       <c r="I10">
         <v>3240</v>
       </c>
-    </row>
-    <row r="11" spans="5:9">
+      <c r="J10">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
@@ -664,8 +685,11 @@
       <c r="I11">
         <v>2240</v>
       </c>
-    </row>
-    <row r="12" spans="5:9">
+      <c r="J11">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
@@ -679,7 +703,7 @@
         <v>7223</v>
       </c>
     </row>
-    <row r="13" spans="5:9">
+    <row r="13" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
@@ -693,7 +717,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="14" spans="5:9">
+    <row r="14" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
@@ -706,8 +730,11 @@
       <c r="I14">
         <v>3290</v>
       </c>
-    </row>
-    <row r="15" spans="5:9">
+      <c r="J14">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,8 +747,11 @@
       <c r="I15">
         <v>2290</v>
       </c>
-    </row>
-    <row r="16" spans="5:9">
+      <c r="J15">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
@@ -734,8 +764,11 @@
       <c r="I16">
         <v>3340</v>
       </c>
-    </row>
-    <row r="17" spans="5:9">
+      <c r="J16">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
@@ -748,8 +781,11 @@
       <c r="I17">
         <v>2340</v>
       </c>
-    </row>
-    <row r="18" spans="5:9">
+      <c r="J17">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
@@ -763,7 +799,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="19" spans="5:9">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="1" t="s">
         <v>26</v>
       </c>
@@ -777,7 +813,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="20" spans="5:9">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,8 +826,11 @@
       <c r="I20">
         <v>3420</v>
       </c>
-    </row>
-    <row r="21" spans="5:9">
+      <c r="J20">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
@@ -804,8 +843,11 @@
       <c r="I21">
         <v>2420</v>
       </c>
-    </row>
-    <row r="22" spans="5:9">
+      <c r="J21">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,8 +860,11 @@
       <c r="I22">
         <v>3500</v>
       </c>
-    </row>
-    <row r="23" spans="5:9">
+      <c r="J22">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,8 +877,11 @@
       <c r="I23">
         <v>2500</v>
       </c>
-    </row>
-    <row r="24" spans="5:9">
+      <c r="J23">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,12 +902,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -995,19 +1040,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9448136-5B20-4710-BDAA-E637658F7AF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ACC5C98-DF05-4F36-99F2-41F0813C437B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C79701DB-E3F6-4207-994D-3EF813C19E1F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C79701DB-E3F6-4207-994D-3EF813C19E1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="174713d4-ce47-492d-baed-5011acf22725"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ACC5C98-DF05-4F36-99F2-41F0813C437B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9448136-5B20-4710-BDAA-E637658F7AF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>